--- a/dataTypen_Arduino_Comms.xlsx
+++ b/dataTypen_Arduino_Comms.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thelp\Desktop\Schule\CPE Projekt\RC-Car\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Schule\CPE\2. Klasse\Projekt\RC-Car\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{977C2CE9-7411-4D8E-913E-ADCF355EC663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60195FD6-BA55-443F-9E77-8722572748DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{D1D5FA0F-ED63-432C-B1A2-3825970CDA2F}"/>
+    <workbookView xWindow="57480" yWindow="7095" windowWidth="29040" windowHeight="15720" xr2:uid="{D1D5FA0F-ED63-432C-B1A2-3825970CDA2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>TYP</t>
   </si>
@@ -44,30 +44,6 @@
     <t>valCount</t>
   </si>
   <si>
-    <t>0x1</t>
-  </si>
-  <si>
-    <t>0x2</t>
-  </si>
-  <si>
-    <t>0x3</t>
-  </si>
-  <si>
-    <t>0x4</t>
-  </si>
-  <si>
-    <t>0x5</t>
-  </si>
-  <si>
-    <t>0x6</t>
-  </si>
-  <si>
-    <t>0x7</t>
-  </si>
-  <si>
-    <t>0x8</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -125,18 +101,6 @@
     <t>access</t>
   </si>
   <si>
-    <t>0x0</t>
-  </si>
-  <si>
-    <t>Read only</t>
-  </si>
-  <si>
-    <t>Write only</t>
-  </si>
-  <si>
-    <t>Read and Write</t>
-  </si>
-  <si>
     <t>array data[n]</t>
   </si>
   <si>
@@ -159,6 +123,15 @@
   </si>
   <si>
     <t>int</t>
+  </si>
+  <si>
+    <t>Read only || to ESP only</t>
+  </si>
+  <si>
+    <t>Write only || to LattePanda only</t>
+  </si>
+  <si>
+    <t>Read and Write || to both</t>
   </si>
 </sst>
 </file>
@@ -587,19 +560,19 @@
   <dimension ref="A4:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G21" sqref="E21:G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="45.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" customWidth="1"/>
+    <col min="4" max="4" width="45.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
@@ -608,245 +581,248 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
       </c>
       <c r="C5">
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
         <v>2</v>
-      </c>
-      <c r="F5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
       </c>
       <c r="C7">
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
       </c>
       <c r="C8">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" t="s">
-        <v>2</v>
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
       </c>
       <c r="C9">
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" t="s">
-        <v>2</v>
+        <v>16</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
       </c>
       <c r="C10">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" t="s">
-        <v>3</v>
+        <v>17</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" t="s">
-        <v>3</v>
+        <v>18</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
         <v>19</v>
       </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="E12">
         <v>2</v>
       </c>
-      <c r="H12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E14" s="1" t="s">
-        <v>29</v>
+      <c r="F12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E14" s="1">
+        <v>0</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
       <c r="I14" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E15" s="2" t="s">
-        <v>2</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E15" s="2">
+        <v>1</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="5">
+        <v>1</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E16" s="3">
         <v>2</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E16" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>3</v>
+        <v>31</v>
+      </c>
+      <c r="H16" s="6">
+        <v>2</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/dataTypen_Arduino_Comms.xlsx
+++ b/dataTypen_Arduino_Comms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Schule\CPE\2. Klasse\Projekt\RC-Car\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60195FD6-BA55-443F-9E77-8722572748DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F9B002-A886-4B0D-AE9D-24DAFE741F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="7095" windowWidth="29040" windowHeight="15720" xr2:uid="{D1D5FA0F-ED63-432C-B1A2-3825970CDA2F}"/>
   </bookViews>
@@ -560,7 +560,7 @@
   <dimension ref="A4:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="E21:G26"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -762,7 +762,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C12">
         <v>0</v>

--- a/dataTypen_Arduino_Comms.xlsx
+++ b/dataTypen_Arduino_Comms.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Schule\CPE\2. Klasse\Projekt\RC-Car\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felix\Documents\GitHub\RC-Car\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F9B002-A886-4B0D-AE9D-24DAFE741F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C74EDE-E086-4549-8FF1-9D62C5A7615E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="7095" windowWidth="29040" windowHeight="15720" xr2:uid="{D1D5FA0F-ED63-432C-B1A2-3825970CDA2F}"/>
+    <workbookView xWindow="10185" yWindow="3885" windowWidth="18240" windowHeight="11595" xr2:uid="{D1D5FA0F-ED63-432C-B1A2-3825970CDA2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -92,9 +92,6 @@
     <t>int n_pwm</t>
   </si>
   <si>
-    <t>hex effect, hex clr_1, hex clr_2</t>
-  </si>
-  <si>
     <t>n/a</t>
   </si>
   <si>
@@ -132,6 +129,9 @@
   </si>
   <si>
     <t>Read and Write || to both</t>
+  </si>
+  <si>
+    <t>int 00000b,int effect, hex clr_1, hex clr_2</t>
   </si>
 </sst>
 </file>
@@ -560,17 +560,17 @@
   <dimension ref="A4:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="45.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.44140625" customWidth="1"/>
+    <col min="4" max="4" width="45.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -584,19 +584,19 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
         <v>20</v>
       </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>21</v>
       </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -613,13 +613,13 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -636,13 +636,13 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -659,13 +659,13 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -682,13 +682,13 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -705,13 +705,13 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -728,13 +728,13 @@
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -742,22 +742,22 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E11">
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -765,64 +765,64 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E12">
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E14" s="1">
         <v>0</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H14" s="4">
         <v>0</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E15" s="2">
         <v>1</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H15" s="5">
         <v>1</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E16" s="3">
         <v>2</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H16" s="6">
         <v>2</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/dataTypen_Arduino_Comms.xlsx
+++ b/dataTypen_Arduino_Comms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felix\Documents\GitHub\RC-Car\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C74EDE-E086-4549-8FF1-9D62C5A7615E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14CAE33-56E1-4AB6-986D-22631F352156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10185" yWindow="3885" windowWidth="18240" windowHeight="11595" xr2:uid="{D1D5FA0F-ED63-432C-B1A2-3825970CDA2F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D1D5FA0F-ED63-432C-B1A2-3825970CDA2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>TYP</t>
   </si>
@@ -74,9 +74,6 @@
     <t>ERR</t>
   </si>
   <si>
-    <t>float ax,  float ay, float  az, float gy, float gx, float gz</t>
-  </si>
-  <si>
     <t>float mx, float my, float mz</t>
   </si>
   <si>
@@ -132,6 +129,15 @@
   </si>
   <si>
     <t>int 00000b,int effect, hex clr_1, hex clr_2</t>
+  </si>
+  <si>
+    <t>IMU3 Quat</t>
+  </si>
+  <si>
+    <t>float quat1, float quat2, float quat3, float quat4</t>
+  </si>
+  <si>
+    <t>float ax,  float ay, float  az, float gx, float gy, float gz</t>
   </si>
 </sst>
 </file>
@@ -557,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41203F3A-F095-42DE-AE2E-4FD3075DE899}">
-  <dimension ref="A4:I16"/>
+  <dimension ref="A4:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="M17" sqref="L17:M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,16 +590,16 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
         <v>19</v>
       </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>20</v>
-      </c>
-      <c r="H4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -607,13 +613,13 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -630,13 +636,13 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -653,13 +659,13 @@
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -676,13 +682,13 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -699,13 +705,13 @@
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -722,13 +728,13 @@
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10">
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -745,13 +751,13 @@
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E11">
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -768,61 +774,84 @@
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E12">
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E14" s="1">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="4">
-        <v>0</v>
-      </c>
-      <c r="I14" s="4" t="s">
+      <c r="H16" s="5">
+        <v>1</v>
+      </c>
+      <c r="I16" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E15" s="2">
-        <v>1</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2" t="s">
+    <row r="17" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E17" s="3">
+        <v>2</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="5">
-        <v>1</v>
-      </c>
-      <c r="I15" s="5" t="s">
+      <c r="H17" s="6">
+        <v>2</v>
+      </c>
+      <c r="I17" s="6" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E16" s="3">
-        <v>2</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H16" s="6">
-        <v>2</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/dataTypen_Arduino_Comms.xlsx
+++ b/dataTypen_Arduino_Comms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felix\Documents\GitHub\RC-Car\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Schule\CPE\2. Klasse\Projekt\RC-Car\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14CAE33-56E1-4AB6-986D-22631F352156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BEDD195-F1E2-49A7-B194-9183E2CA5C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D1D5FA0F-ED63-432C-B1A2-3825970CDA2F}"/>
+    <workbookView xWindow="61215" yWindow="9090" windowWidth="23010" windowHeight="12360" xr2:uid="{D1D5FA0F-ED63-432C-B1A2-3825970CDA2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -128,9 +128,6 @@
     <t>Read and Write || to both</t>
   </si>
   <si>
-    <t>int 00000b,int effect, hex clr_1, hex clr_2</t>
-  </si>
-  <si>
     <t>IMU3 Quat</t>
   </si>
   <si>
@@ -138,6 +135,9 @@
   </si>
   <si>
     <t>float ax,  float ay, float  az, float gx, float gy, float gz</t>
+  </si>
+  <si>
+    <t>int 00000000b,int effect, hex clr_1, hex clr_2</t>
   </si>
 </sst>
 </file>
@@ -566,17 +566,17 @@
   <dimension ref="A4:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="L17:M18"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="45.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" customWidth="1"/>
+    <col min="4" max="4" width="45.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -602,7 +602,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -613,7 +613,7 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -625,7 +625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -671,7 +671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -694,7 +694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -751,7 +751,7 @@
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -763,7 +763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -786,9 +786,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13">
         <v>8</v>
@@ -797,7 +797,7 @@
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -809,7 +809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E15" s="1">
         <v>0</v>
       </c>
@@ -824,7 +824,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E16" s="2">
         <v>1</v>
       </c>
@@ -839,7 +839,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E17" s="3">
         <v>2</v>
       </c>

--- a/dataTypen_Arduino_Comms.xlsx
+++ b/dataTypen_Arduino_Comms.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Schule\CPE\2. Klasse\Projekt\RC-Car\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felix\Documents\GitHub\RC-Car\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BEDD195-F1E2-49A7-B194-9183E2CA5C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD26CFD6-7D3C-43CA-A067-EF134C42ACAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="61215" yWindow="9090" windowWidth="23010" windowHeight="12360" xr2:uid="{D1D5FA0F-ED63-432C-B1A2-3825970CDA2F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D1D5FA0F-ED63-432C-B1A2-3825970CDA2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -566,17 +566,17 @@
   <dimension ref="A4:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="45.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.44140625" customWidth="1"/>
+    <col min="4" max="4" width="45.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -602,7 +602,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -625,7 +625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -671,7 +671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -694,7 +694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -763,7 +763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -809,7 +809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E15" s="1">
         <v>0</v>
       </c>
@@ -824,7 +824,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E16" s="2">
         <v>1</v>
       </c>
@@ -839,7 +839,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E17" s="3">
         <v>2</v>
       </c>
